--- a/Задания по Экселю/Функции/Задание_1.xlsx
+++ b/Задания по Экселю/Функции/Задание_1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="28590" windowHeight="12600"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="28590" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Задание" sheetId="1" r:id="rId1"/>
-    <sheet name="Сводный отчёт" sheetId="2" r:id="rId2"/>
+    <sheet name="Гидрометцентр" sheetId="1" r:id="rId1"/>
+    <sheet name="Сводный отчёт Вар. 5" sheetId="2" r:id="rId2"/>
+    <sheet name="Сводный отчёт Вар. 1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Январь</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Декабрь</t>
   </si>
   <si>
-    <t>Сводный отчет</t>
-  </si>
-  <si>
     <t>Значение</t>
   </si>
   <si>
@@ -92,27 +90,79 @@
     <t>Минимальное количество осадков в году X4</t>
   </si>
   <si>
-    <t>Количество засушливых месяцев в году X5</t>
-  </si>
-  <si>
-    <t>Количество дождливых месяцев в году X6 (больше 50мм.)</t>
-  </si>
-  <si>
-    <t>Количество месяцев в году X7, в котором выпало осадков от 25 до 40 мм.</t>
-  </si>
-  <si>
-    <t>Общее количество осадков за год X8, для которых в году X9 выпало осадков
-менее 10 мм.</t>
-  </si>
-  <si>
-    <t>1, 3</t>
+    <t>Количество месяцев в году X7, 
+в котором выпало осадков от 25 до 40 мм.</t>
+  </si>
+  <si>
+    <t>Количество дождливых месяцев в году X6 
+(больше 50мм.)</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>Сводный отчёт</t>
+  </si>
+  <si>
+    <t>Ищем ↓</t>
+  </si>
+  <si>
+    <t>Столбец:</t>
+  </si>
+  <si>
+    <t>Год №:</t>
+  </si>
+  <si>
+    <t>Буква
+Столбца</t>
+  </si>
+  <si>
+    <t>Значение:</t>
+  </si>
+  <si>
+    <t>Нач. Строка</t>
+  </si>
+  <si>
+    <t>Фин. Строка</t>
+  </si>
+  <si>
+    <t>Общее количество осадков за год X8, 
+для которых в году X9 выпало осадков менее 10 мм.</t>
+  </si>
+  <si>
+    <t>Количество засушливых месяцев в году X5
+(меньше 50мм)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -139,14 +189,38 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="6"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +233,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,23 +263,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -212,9 +318,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -528,14 +674,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -559,19 +705,19 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="10">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>3</v>
       </c>
     </row>
@@ -579,19 +725,19 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>5</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
     </row>
@@ -599,19 +745,19 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9">
         <v>8</v>
       </c>
-      <c r="C5" s="10">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>8</v>
       </c>
     </row>
@@ -619,19 +765,19 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8">
         <v>12</v>
       </c>
-      <c r="C6" s="10">
+      <c r="E6" s="9">
         <v>14</v>
       </c>
-      <c r="D6" s="10">
-        <v>12</v>
-      </c>
-      <c r="E6" s="11">
-        <v>14</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>14</v>
       </c>
     </row>
@@ -639,19 +785,19 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
         <v>16</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>15</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>14</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>16</v>
       </c>
     </row>
@@ -659,19 +805,19 @@
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8">
         <v>17</v>
       </c>
-      <c r="C8" s="10">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10">
-        <v>16</v>
-      </c>
-      <c r="E8" s="10">
-        <v>17</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>15</v>
       </c>
     </row>
@@ -679,19 +825,19 @@
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
         <v>19</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>19</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>20</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>20</v>
       </c>
     </row>
@@ -699,19 +845,19 @@
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8">
         <v>19</v>
       </c>
-      <c r="C10" s="10">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10">
-        <v>19</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>20</v>
       </c>
     </row>
@@ -719,19 +865,19 @@
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10">
-        <v>17</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
         <v>18</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>19</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>20</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>21</v>
       </c>
     </row>
@@ -739,19 +885,19 @@
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
         <v>20</v>
       </c>
-      <c r="C12" s="10">
+      <c r="D12" s="8">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8">
         <v>20</v>
       </c>
-      <c r="D12" s="10">
-        <v>19</v>
-      </c>
-      <c r="E12" s="10">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>19</v>
       </c>
     </row>
@@ -759,19 +905,19 @@
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8">
         <v>15</v>
       </c>
-      <c r="C13" s="10">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10">
-        <v>15</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>12</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>11</v>
       </c>
     </row>
@@ -779,19 +925,19 @@
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
         <v>5</v>
       </c>
-      <c r="C14" s="10">
-        <v>4</v>
-      </c>
-      <c r="D14" s="10">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>3</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>4</v>
       </c>
     </row>
@@ -806,100 +952,671 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5" customWidth="1"/>
+    <col min="12" max="12" width="52.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.83203125" customWidth="1"/>
+    <col min="15" max="16" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8">
+        <v>45</v>
+      </c>
+      <c r="D2" s="8">
+        <v>33</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="M3" s="6">
+        <f>SUM(D2:D13)</f>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8">
+        <v>49</v>
+      </c>
+      <c r="E4" s="8">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1">
+      <c r="M4" s="1">
+        <f>AVERAGE(F2:F13)</f>
+        <v>40.083333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1">
+        <f>MAX(D1:D13)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <f>MIN(B2:B13)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8">
+        <v>72</v>
+      </c>
+      <c r="D7" s="8">
+        <v>60</v>
+      </c>
+      <c r="E7" s="8">
+        <v>52</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1">
+        <f>COUNTIF(F2:F13, "&lt;50")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>77</v>
+      </c>
+      <c r="C8" s="8">
+        <v>73</v>
+      </c>
+      <c r="D8" s="8">
+        <v>74</v>
+      </c>
+      <c r="E8" s="8">
+        <v>45</v>
+      </c>
+      <c r="F8" s="8">
+        <v>55</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1">
+        <f>COUNTIF(D2:D13, "&gt;50")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8">
+        <v>54</v>
+      </c>
+      <c r="E9" s="8">
+        <v>55</v>
+      </c>
+      <c r="F9" s="8">
+        <v>65</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1">
+        <f>COUNTIFS(B2:F13, "&gt;25", B2:F13, "&lt;40")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8">
+        <v>14</v>
+      </c>
+      <c r="E10" s="8">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8">
+        <v>49</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8">
         <v>22</v>
       </c>
-      <c r="B4" s="1">
+      <c r="F11" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8">
+        <v>49</v>
+      </c>
+      <c r="E12" s="8">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8">
+        <v>33</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15">
+        <f>INDEX(B2:B13,1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="20">
+        <v>3</v>
+      </c>
+      <c r="C16" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="D16" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="E16" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="F16" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="G16" s="20">
+        <v>3</v>
+      </c>
+      <c r="H16" s="20">
+        <v>2</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1</v>
+      </c>
+      <c r="J16" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="22" t="str">
+        <f ca="1">INDIRECT("R"&amp;$B$21&amp;"C"&amp;B$19,0)</f>
+        <v>Год 3</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f t="shared" ref="C17:J17" ca="1" si="0">INDIRECT("R"&amp;$B$21&amp;"C"&amp;C19,0)</f>
+        <v>Год 5</v>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 3</v>
+      </c>
+      <c r="E17" s="22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 1</v>
+      </c>
+      <c r="F17" s="22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 5</v>
+      </c>
+      <c r="G17" s="22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 3</v>
+      </c>
+      <c r="H17" s="22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 2</v>
+      </c>
+      <c r="I17" s="22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 1</v>
+      </c>
+      <c r="J17" s="22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 3</v>
+      </c>
+      <c r="L17" s="27" t="e">
+        <f ca="1">INDEX(D:D, СООТВЕТСТВИЕ(B20,D2:D13,0))</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" t="e">
+        <f ca="1">СООТВЕТСТВИЕ(B20,D2:D13,0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="13">
+        <f>MATCH( ("Год " &amp; B$16),$A$1:$F$1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C19" s="13">
+        <f>MATCH( ("Год " &amp; C$16),$A$1:$F$1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D19" s="13">
+        <f>MATCH( ("Год " &amp; D$16),$A$1:$F$1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="13">
+        <f>MATCH( ("Год " &amp; E$16),$A$1:$F$1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="13">
+        <f>MATCH( ("Год " &amp; F$16),$A$1:$F$1,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G19" s="13">
+        <f>MATCH( ("Год " &amp; G$16),$A$1:$F$1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="H19" s="13">
+        <f>MATCH( ("Год " &amp; H$16),$A$1:$F$1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="13">
+        <f>MATCH( ("Год " &amp; I$16),$A$1:$F$1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="13">
+        <f>MATCH( ("Год " &amp; J$16),$A$1:$F$1,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,B$19,4),1,"")</f>
+        <v>D</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,C$19,4),1,"")</f>
+        <v>F</v>
+      </c>
+      <c r="D20" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,D$19,4),1,"")</f>
+        <v>D</v>
+      </c>
+      <c r="E20" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,E$19,4),1,"")</f>
+        <v>B</v>
+      </c>
+      <c r="F20" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,F$19,4),1,"")</f>
+        <v>F</v>
+      </c>
+      <c r="G20" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,G$19,4),1,"")</f>
+        <v>D</v>
+      </c>
+      <c r="H20" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,H$19,4),1,"")</f>
+        <v>C</v>
+      </c>
+      <c r="I20" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,I$19,4),1,"")</f>
+        <v>B</v>
+      </c>
+      <c r="J20" s="14" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,J$19,4),1,"")</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="23">
+        <v>13</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="28">
+        <f>SUM(INDEX(D:D, B21):INDEX(D:D, B22))</f>
+        <v>452</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20000" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1">
+      <c r="G1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>29</v>
+      <c r="M2" s="1">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Задания по Экселю/Функции/Задание_1.xlsx
+++ b/Задания по Экселю/Функции/Задание_1.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="28590" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="28590" windowHeight="12600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Гидрометцентр" sheetId="1" r:id="rId1"/>
-    <sheet name="Сводный отчёт Вар. 5" sheetId="2" r:id="rId2"/>
-    <sheet name="Сводный отчёт Вар. 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Сводный отчёт Вар. 1" sheetId="4" r:id="rId2"/>
+    <sheet name="Сводный отчёт Вар. 2" sheetId="5" r:id="rId3"/>
+    <sheet name="Сводный отчёт Вар. 3" sheetId="6" r:id="rId4"/>
+    <sheet name="Сводный отчёт Вар. 4" sheetId="7" r:id="rId5"/>
+    <sheet name="Сводный отчёт Вар. 5" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="45">
   <si>
     <t>Январь</t>
   </si>
@@ -299,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -318,12 +321,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -337,16 +334,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -357,6 +348,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -674,14 +674,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -954,8 +954,2295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="51.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM(C2:C13)</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1">
+        <f>AVERAGE(B2:B13)</f>
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1">
+        <f>MAX(F1:F13)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <f>MIN(E2:E13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8">
+        <v>52</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1">
+        <f>COUNTIF(D2:D13, "&lt;50")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>77</v>
+      </c>
+      <c r="C8" s="8">
+        <v>77</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>45</v>
+      </c>
+      <c r="F8" s="8">
+        <v>55</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1">
+        <f>COUNTIF(B2:B13, "&gt;50")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8">
+        <v>41</v>
+      </c>
+      <c r="E9" s="8">
+        <v>55</v>
+      </c>
+      <c r="F9" s="8">
+        <v>65</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1">
+        <f>COUNTIF(C2:C13, "&gt;25") - COUNTIF(C2:C13, "&gt;=40")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8">
+        <v>49</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="7">
+        <f>COUNTIF(B1:B13, "&lt;10") + COUNTIF(D1:D13, "&lt;10")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8">
+        <v>35</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="17">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17">
+        <v>4</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>2</v>
+      </c>
+      <c r="I16" s="17">
+        <v>4</v>
+      </c>
+      <c r="J16" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f ca="1">INDIRECT("R"&amp;$B$21&amp;"C"&amp;B$19,0)</f>
+        <v>Год 2</v>
+      </c>
+      <c r="C17" s="19" t="str">
+        <f t="shared" ref="C17:J17" ca="1" si="0">INDIRECT("R"&amp;$B$21&amp;"C"&amp;C19,0)</f>
+        <v>Год 1</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 5</v>
+      </c>
+      <c r="E17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 4</v>
+      </c>
+      <c r="F17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 3</v>
+      </c>
+      <c r="G17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 1</v>
+      </c>
+      <c r="H17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 2</v>
+      </c>
+      <c r="I17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 4</v>
+      </c>
+      <c r="J17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 5</v>
+      </c>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="11">
+        <f t="shared" ref="B19:J19" si="1">MATCH( ("Год " &amp; B$16),$A$1:$F$1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f t="shared" ref="B20:J20" si="2">SUBSTITUTE(ADDRESS(1,B$19,4),1,"")</f>
+        <v>C</v>
+      </c>
+      <c r="C20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+      <c r="F20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="G20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="H20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="I20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="27">
+        <v>13</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="55.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM(D2:D13)</f>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1">
+        <f>AVERAGE(C2:C13)</f>
+        <v>32.916666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1">
+        <f>MAX(B1:B13)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <f>MIN(C2:C13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8">
+        <v>52</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1">
+        <f>COUNTIF(F2:F13, "&lt;50")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>77</v>
+      </c>
+      <c r="C8" s="8">
+        <v>77</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8">
+        <v>55</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1">
+        <f>COUNTIF(C2:C13, "&gt;50")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8">
+        <v>41</v>
+      </c>
+      <c r="E9" s="8">
+        <v>55</v>
+      </c>
+      <c r="F9" s="8">
+        <v>65</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1">
+        <f>COUNTIF(E2:E13, "&gt;25") - COUNTIF(E2:E13, "&gt;=40")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8">
+        <v>49</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="7">
+        <f>COUNTIF(D1:D13, "&lt;10") + COUNTIF(F1:F13, "&lt;10")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8">
+        <v>35</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="17">
+        <v>3</v>
+      </c>
+      <c r="C16" s="17">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>5</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2</v>
+      </c>
+      <c r="H16" s="17">
+        <v>4</v>
+      </c>
+      <c r="I16" s="17">
+        <v>3</v>
+      </c>
+      <c r="J16" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f ca="1">INDIRECT("R"&amp;$B$21&amp;"C"&amp;B$19,0)</f>
+        <v>Год 3</v>
+      </c>
+      <c r="C17" s="19" t="str">
+        <f t="shared" ref="C17:J17" ca="1" si="0">INDIRECT("R"&amp;$B$21&amp;"C"&amp;C19,0)</f>
+        <v>Год 3</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 1</v>
+      </c>
+      <c r="E17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 2</v>
+      </c>
+      <c r="F17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 5</v>
+      </c>
+      <c r="G17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 2</v>
+      </c>
+      <c r="H17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 4</v>
+      </c>
+      <c r="I17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 3</v>
+      </c>
+      <c r="J17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 5</v>
+      </c>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="11">
+        <f t="shared" ref="B19:J19" si="1">MATCH( ("Год " &amp; B$16),$A$1:$F$1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f t="shared" ref="B20:J20" si="2">SUBSTITUTE(ADDRESS(1,B$19,4),1,"")</f>
+        <v>D</v>
+      </c>
+      <c r="C20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="F20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="G20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="H20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+      <c r="I20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="27">
+        <v>13</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="47.83203125" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM(E2:E13)</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1">
+        <f>AVERAGE(B2:B13)</f>
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1">
+        <f>MAX(B1:B13)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <f>MIN(D2:D13)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8">
+        <v>52</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1">
+        <f>COUNTIF(E2:E13, "&lt;50")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>77</v>
+      </c>
+      <c r="C8" s="8">
+        <v>77</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8">
+        <v>55</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1">
+        <f>COUNTIF(F2:F13, "&gt;50")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8">
+        <v>41</v>
+      </c>
+      <c r="E9" s="8">
+        <v>55</v>
+      </c>
+      <c r="F9" s="8">
+        <v>65</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1">
+        <f>COUNTIF(F2:F13, "&gt;25") - COUNTIF(F2:F13, "&gt;=40")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8">
+        <v>49</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="7">
+        <f>COUNTIF(C1:C13, "&lt;10") + COUNTIF(E1:E13, "&lt;10")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8">
+        <v>35</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="17">
+        <v>4</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>3</v>
+      </c>
+      <c r="F16" s="17">
+        <v>4</v>
+      </c>
+      <c r="G16" s="17">
+        <v>5</v>
+      </c>
+      <c r="H16" s="17">
+        <v>5</v>
+      </c>
+      <c r="I16" s="17">
+        <v>2</v>
+      </c>
+      <c r="J16" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f ca="1">INDIRECT("R"&amp;$B$21&amp;"C"&amp;B$19,0)</f>
+        <v>Год 4</v>
+      </c>
+      <c r="C17" s="19" t="str">
+        <f t="shared" ref="C17:J17" ca="1" si="0">INDIRECT("R"&amp;$B$21&amp;"C"&amp;C19,0)</f>
+        <v>Год 1</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 1</v>
+      </c>
+      <c r="E17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 3</v>
+      </c>
+      <c r="F17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 4</v>
+      </c>
+      <c r="G17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 5</v>
+      </c>
+      <c r="H17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 5</v>
+      </c>
+      <c r="I17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 2</v>
+      </c>
+      <c r="J17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 4</v>
+      </c>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="11">
+        <f t="shared" ref="B19:J19" si="1">MATCH( ("Год " &amp; B$16),$A$1:$F$1,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f t="shared" ref="B20:J20" si="2">SUBSTITUTE(ADDRESS(1,B$19,4),1,"")</f>
+        <v>E</v>
+      </c>
+      <c r="C20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="F20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+      <c r="G20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="H20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="I20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="27">
+        <v>13</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45</v>
+      </c>
+      <c r="F2" s="8">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM(C2:C13)</f>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1">
+        <f>AVERAGE(D2:D13)</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1">
+        <f>MAX(F1:F13)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <f>MIN(F2:F13)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8">
+        <v>52</v>
+      </c>
+      <c r="F7" s="8">
+        <v>21</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1">
+        <f>COUNTIF(B2:B13, "&lt;50")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>77</v>
+      </c>
+      <c r="C8" s="8">
+        <v>77</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8">
+        <v>55</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1">
+        <f>COUNTIF(E2:E13, "&gt;50")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8">
+        <v>41</v>
+      </c>
+      <c r="E9" s="8">
+        <v>55</v>
+      </c>
+      <c r="F9" s="8">
+        <v>65</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1">
+        <f>COUNTIF(B2:B13, "&gt;25") - COUNTIF(B2:B13, "&gt;=40")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8">
+        <v>49</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="7">
+        <f>COUNTIF(E1:E13, "&lt;10") + COUNTIF(C1:C13, "&lt;10")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8">
+        <v>26</v>
+      </c>
+      <c r="F12" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8">
+        <v>35</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="17">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17">
+        <v>5</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>4</v>
+      </c>
+      <c r="H16" s="17">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17">
+        <v>4</v>
+      </c>
+      <c r="J16" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f ca="1">INDIRECT("R"&amp;$B$21&amp;"C"&amp;B$19,0)</f>
+        <v>Год 2</v>
+      </c>
+      <c r="C17" s="19" t="str">
+        <f t="shared" ref="C17:J17" ca="1" si="0">INDIRECT("R"&amp;$B$21&amp;"C"&amp;C19,0)</f>
+        <v>Год 3</v>
+      </c>
+      <c r="D17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 5</v>
+      </c>
+      <c r="E17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 5</v>
+      </c>
+      <c r="F17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 1</v>
+      </c>
+      <c r="G17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 4</v>
+      </c>
+      <c r="H17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 1</v>
+      </c>
+      <c r="I17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 4</v>
+      </c>
+      <c r="J17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Год 2</v>
+      </c>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="11">
+        <f t="shared" ref="B19:J19" si="1">MATCH( ("Год " &amp; B$16),$A$1:$F$1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="str">
+        <f t="shared" ref="B20:J20" si="2">SUBSTITUTE(ADDRESS(1,B$19,4),1,"")</f>
+        <v>C</v>
+      </c>
+      <c r="C20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="F20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="G20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+      <c r="H20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="I20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>E</v>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="27">
+        <v>13</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -965,7 +3252,7 @@
     <col min="3" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.5" customWidth="1"/>
     <col min="12" max="12" width="52.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="28.83203125" customWidth="1"/>
     <col min="15" max="16" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -987,7 +3274,7 @@
       <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1049,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8">
         <v>43</v>
@@ -1122,7 +3409,7 @@
       </c>
       <c r="M6" s="1">
         <f>MIN(B2:B13)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1228,7 +3515,10 @@
       <c r="L10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7">
+        <f>COUNTIF(B1:B13, "&lt;10") + COUNTIF(D1:D13, "&lt;10")</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1291,252 +3581,237 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L15">
-        <f>INDEX(B2:B13,1)</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="16" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>3</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>5</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="17">
         <v>3</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="17">
         <v>1</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="17">
         <v>5</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="17">
         <v>3</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="17">
         <v>2</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>1</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="19" t="str">
         <f ca="1">INDIRECT("R"&amp;$B$21&amp;"C"&amp;B$19,0)</f>
         <v>Год 3</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="19" t="str">
         <f t="shared" ref="C17:J17" ca="1" si="0">INDIRECT("R"&amp;$B$21&amp;"C"&amp;C19,0)</f>
         <v>Год 5</v>
       </c>
-      <c r="D17" s="22" t="str">
+      <c r="D17" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Год 3</v>
       </c>
-      <c r="E17" s="22" t="str">
+      <c r="E17" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Год 1</v>
       </c>
-      <c r="F17" s="22" t="str">
+      <c r="F17" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Год 5</v>
       </c>
-      <c r="G17" s="22" t="str">
+      <c r="G17" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Год 3</v>
       </c>
-      <c r="H17" s="22" t="str">
+      <c r="H17" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Год 2</v>
       </c>
-      <c r="I17" s="22" t="str">
+      <c r="I17" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Год 1</v>
       </c>
-      <c r="J17" s="22" t="str">
+      <c r="J17" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Год 3</v>
       </c>
-      <c r="L17" s="27" t="e">
-        <f ca="1">INDEX(D:D, СООТВЕТСТВИЕ(B20,D2:D13,0))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L18" t="e">
-        <f ca="1">СООТВЕТСТВИЕ(B20,D2:D13,0)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="13">
-        <f>MATCH( ("Год " &amp; B$16),$A$1:$F$1,0)</f>
+      <c r="B19" s="11">
+        <f t="shared" ref="B19:J19" si="1">MATCH( ("Год " &amp; B$16),$A$1:$F$1,0)</f>
         <v>4</v>
       </c>
-      <c r="C19" s="13">
-        <f>MATCH( ("Год " &amp; C$16),$A$1:$F$1,0)</f>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D19" s="13">
-        <f>MATCH( ("Год " &amp; D$16),$A$1:$F$1,0)</f>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E19" s="13">
-        <f>MATCH( ("Год " &amp; E$16),$A$1:$F$1,0)</f>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F19" s="13">
-        <f>MATCH( ("Год " &amp; F$16),$A$1:$F$1,0)</f>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G19" s="13">
-        <f>MATCH( ("Год " &amp; G$16),$A$1:$F$1,0)</f>
+      <c r="G19" s="11">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H19" s="13">
-        <f>MATCH( ("Год " &amp; H$16),$A$1:$F$1,0)</f>
+      <c r="H19" s="11">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I19" s="13">
-        <f>MATCH( ("Год " &amp; I$16),$A$1:$F$1,0)</f>
+      <c r="I19" s="11">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J19" s="13">
-        <f>MATCH( ("Год " &amp; J$16),$A$1:$F$1,0)</f>
+      <c r="J19" s="11">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="14" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,B$19,4),1,"")</f>
+      <c r="B20" s="12" t="str">
+        <f t="shared" ref="B20:J20" si="2">SUBSTITUTE(ADDRESS(1,B$19,4),1,"")</f>
         <v>D</v>
       </c>
-      <c r="C20" s="14" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,C$19,4),1,"")</f>
+      <c r="C20" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="D20" s="14" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,D$19,4),1,"")</f>
+      <c r="D20" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="E20" s="14" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,E$19,4),1,"")</f>
+      <c r="E20" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
-      <c r="F20" s="14" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,F$19,4),1,"")</f>
+      <c r="F20" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="G20" s="14" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,G$19,4),1,"")</f>
+      <c r="G20" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>D</v>
       </c>
-      <c r="H20" s="14" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,H$19,4),1,"")</f>
+      <c r="H20" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="I20" s="14" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,I$19,4),1,"")</f>
+      <c r="I20" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
-      <c r="J20" s="14" t="str">
-        <f>SUBSTITUTE(ADDRESS(1,J$19,4),1,"")</f>
+      <c r="J20" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>D</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="26">
         <v>1</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="27">
         <v>13</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="28">
-        <f>SUM(INDEX(D:D, B21):INDEX(D:D, B22))</f>
-        <v>452</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1546,77 +3821,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20000" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>